--- a/usuarios/ramiro.xlsx
+++ b/usuarios/ramiro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\comedores_unr\usuarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B55741-A1DC-4E94-8227-30E02DF2C9A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EDC6A9A-C4A6-41D2-AEC6-3BD2A60938D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="35">
   <si>
     <t>comedor</t>
   </si>
@@ -588,7 +588,7 @@
   <dimension ref="A1:C747"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="A2" sqref="A2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -612,13 +612,68 @@
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="7">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="7">
+        <v>45832</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="7">
+        <v>45833</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="7">
-        <v>45817</v>
+      <c r="B5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="7">
+        <v>45833</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="7">
+        <v>45834</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="7">
+        <v>45835</v>
       </c>
     </row>
     <row r="17" spans="3:3" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2896,21 +2951,21 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>COUNTA(Table1[comedor])</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2" s="8">
         <v>1500</v>
       </c>
       <c r="C2" s="8">
         <f>A2*B2</f>
-        <v>1500</v>
+        <v>9000</v>
       </c>
       <c r="D2" s="8">
         <v>7500</v>
       </c>
       <c r="E2" s="8">
         <f>C2-D2</f>
-        <v>-6000</v>
+        <v>1500</v>
       </c>
     </row>
   </sheetData>
@@ -3226,7 +3281,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C8:C9"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3242,31 +3297,31 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45817</v>
+        <v>45831</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45818</v>
+        <v>45832</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45819</v>
+        <v>45833</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45820</v>
+        <v>45834</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45821</v>
+        <v>45835</v>
       </c>
       <c r="C6" s="2"/>
     </row>

--- a/usuarios/ramiro.xlsx
+++ b/usuarios/ramiro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\comedores_unr\usuarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29EE4F8D-8557-4189-A775-CC7BCD0EF239}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7758D5A-4D05-48BF-A30B-914B6B6A5BF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="35">
   <si>
     <t>comedor</t>
   </si>
@@ -588,7 +588,7 @@
   <dimension ref="A1:C746"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -608,61 +608,6 @@
       </c>
       <c r="C1" s="4" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="7">
-        <v>45873</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="7">
-        <v>45874</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="7">
-        <v>45875</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="7">
-        <v>45876</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="7">
-        <v>45877</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3660,21 +3605,21 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>COUNTA(Table1[comedor])</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2" s="8">
         <v>1500</v>
       </c>
       <c r="C2" s="8">
         <f>A2*B2</f>
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="D2" s="8">
         <v>7500</v>
       </c>
       <c r="E2" s="8">
         <f>C2-D2</f>
-        <v>0</v>
+        <v>-7500</v>
       </c>
     </row>
   </sheetData>

--- a/usuarios/ramiro.xlsx
+++ b/usuarios/ramiro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\comedores_unr\usuarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7758D5A-4D05-48BF-A30B-914B6B6A5BF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217213A2-FC95-4631-AF0B-15CE3FC6A739}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="35">
   <si>
     <t>comedor</t>
   </si>
@@ -588,7 +588,7 @@
   <dimension ref="A1:C746"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -608,6 +608,61 @@
       </c>
       <c r="C1" s="4" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="7">
+        <v>45880</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="7">
+        <v>45881</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="7">
+        <v>45882</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="7">
+        <v>45883</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="7">
+        <v>45884</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3605,21 +3660,21 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>COUNTA(Table1[comedor])</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B2" s="8">
         <v>1500</v>
       </c>
       <c r="C2" s="8">
         <f>A2*B2</f>
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="D2" s="8">
         <v>7500</v>
       </c>
       <c r="E2" s="8">
         <f>C2-D2</f>
-        <v>-7500</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3951,31 +4006,31 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45873</v>
+        <v>45880</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45874</v>
+        <v>45881</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45875</v>
+        <v>45882</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45876</v>
+        <v>45883</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45877</v>
+        <v>45884</v>
       </c>
       <c r="C6" s="2"/>
     </row>

--- a/usuarios/ramiro.xlsx
+++ b/usuarios/ramiro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\comedores_unr\usuarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217213A2-FC95-4631-AF0B-15CE3FC6A739}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B255AF9B-A4F6-46F4-8A42-D97E7FC41CD2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -588,7 +588,7 @@
   <dimension ref="A1:C746"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -618,7 +618,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="7">
-        <v>45880</v>
+        <v>45887</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -626,10 +626,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C3" s="7">
-        <v>45881</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -637,10 +637,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="7">
-        <v>45882</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -651,7 +651,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="7">
-        <v>45883</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -662,7 +662,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>45884</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3990,7 +3990,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4006,31 +4006,31 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45880</v>
+        <v>45887</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45881</v>
+        <v>45888</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45882</v>
+        <v>45889</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45883</v>
+        <v>45890</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45884</v>
+        <v>45891</v>
       </c>
       <c r="C6" s="2"/>
     </row>
